--- a/print_docs/excel/excel_template/KEMSA Customer Order Form.xlsx
+++ b/print_docs/excel/excel_template/KEMSA Customer Order Form.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="919">
   <si>
     <t>PHARMACEUTICAL ITEMS</t>
   </si>
@@ -2805,15 +2805,6 @@
   <si>
     <t>Prices Effective from July 2014</t>
   </si>
-  <si>
-    <t>P,O BOX 30397-00100</t>
-  </si>
-  <si>
-    <t>NAIROBI</t>
-  </si>
-  <si>
-    <t>NYS HEALTH CENTRE</t>
-  </si>
 </sst>
 </file>
 
@@ -2821,9 +2812,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="179" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -3557,7 +3548,7 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3731,7 +3722,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3796,30 +3787,30 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3895,7 +3886,7 @@
     <xf numFmtId="1" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3920,7 +3911,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3929,7 +3920,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3939,7 +3930,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3950,19 +3941,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3996,14 +3987,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="14" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4025,7 +4016,7 @@
     <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4036,19 +4027,19 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4106,7 +4097,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4198,54 +4189,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4289,6 +4232,54 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5839,8 +5830,8 @@
   </sheetPr>
   <dimension ref="A1:J807"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D390" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H431" sqref="H431"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5887,7 +5878,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="139"/>
-      <c r="C4" s="269"/>
+      <c r="C4" s="253"/>
       <c r="D4" s="145"/>
       <c r="E4" s="146" t="s">
         <v>379</v>
@@ -5896,15 +5887,13 @@
       <c r="G4" s="147" t="s">
         <v>368</v>
       </c>
-      <c r="H4" s="270">
-        <v>13130</v>
-      </c>
-      <c r="I4" s="271"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="255"/>
       <c r="J4" s="144"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="139"/>
-      <c r="C5" s="269"/>
+      <c r="C5" s="253"/>
       <c r="D5" s="145"/>
       <c r="E5" s="148" t="s">
         <v>380</v>
@@ -5913,15 +5902,13 @@
       <c r="G5" s="149" t="s">
         <v>369</v>
       </c>
-      <c r="H5" s="272" t="s">
-        <v>921</v>
-      </c>
-      <c r="I5" s="273"/>
+      <c r="H5" s="256"/>
+      <c r="I5" s="257"/>
       <c r="J5" s="144"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="139"/>
-      <c r="C6" s="269"/>
+      <c r="C6" s="253"/>
       <c r="D6" s="145"/>
       <c r="E6" s="148" t="s">
         <v>381</v>
@@ -5930,15 +5917,13 @@
       <c r="G6" s="149" t="s">
         <v>370</v>
       </c>
-      <c r="H6" s="272" t="s">
-        <v>919</v>
-      </c>
-      <c r="I6" s="273"/>
+      <c r="H6" s="256"/>
+      <c r="I6" s="257"/>
       <c r="J6" s="144"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="139"/>
-      <c r="C7" s="269"/>
+      <c r="C7" s="253"/>
       <c r="D7" s="145"/>
       <c r="E7" s="148" t="s">
         <v>382</v>
@@ -5947,15 +5932,13 @@
       <c r="G7" s="149" t="s">
         <v>371</v>
       </c>
-      <c r="H7" s="272" t="s">
-        <v>920</v>
-      </c>
-      <c r="I7" s="273"/>
+      <c r="H7" s="256"/>
+      <c r="I7" s="257"/>
       <c r="J7" s="144"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="139"/>
-      <c r="C8" s="269"/>
+      <c r="C8" s="253"/>
       <c r="D8" s="141"/>
       <c r="E8" s="150" t="s">
         <v>383</v>
@@ -5964,10 +5947,8 @@
       <c r="G8" s="151" t="s">
         <v>378</v>
       </c>
-      <c r="H8" s="267">
-        <v>41667</v>
-      </c>
-      <c r="I8" s="268"/>
+      <c r="H8" s="251"/>
+      <c r="I8" s="252"/>
       <c r="J8" s="144"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -5995,37 +5976,37 @@
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="139"/>
       <c r="C11" s="140"/>
-      <c r="D11" s="254" t="s">
+      <c r="D11" s="267" t="s">
         <v>376</v>
       </c>
-      <c r="E11" s="253"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="255"/>
+      <c r="E11" s="266"/>
+      <c r="F11" s="266"/>
+      <c r="G11" s="266"/>
+      <c r="H11" s="268"/>
       <c r="I11" s="143"/>
       <c r="J11" s="144"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="139"/>
       <c r="C12" s="140"/>
-      <c r="D12" s="256"/>
-      <c r="E12" s="257"/>
-      <c r="F12" s="257"/>
-      <c r="G12" s="257"/>
-      <c r="H12" s="258"/>
+      <c r="D12" s="269"/>
+      <c r="E12" s="270"/>
+      <c r="F12" s="270"/>
+      <c r="G12" s="270"/>
+      <c r="H12" s="271"/>
       <c r="I12" s="143"/>
       <c r="J12" s="144"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="139"/>
       <c r="C13" s="140"/>
-      <c r="D13" s="253" t="s">
+      <c r="D13" s="266" t="s">
         <v>918</v>
       </c>
-      <c r="E13" s="253"/>
-      <c r="F13" s="253"/>
-      <c r="G13" s="253"/>
-      <c r="H13" s="253"/>
+      <c r="E13" s="266"/>
+      <c r="F13" s="266"/>
+      <c r="G13" s="266"/>
+      <c r="H13" s="266"/>
       <c r="I13" s="143"/>
       <c r="J13" s="144"/>
     </row>
@@ -6044,15 +6025,15 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="139"/>
-      <c r="C15" s="259" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="260"/>
-      <c r="E15" s="260"/>
-      <c r="F15" s="260"/>
-      <c r="G15" s="260"/>
-      <c r="H15" s="260"/>
-      <c r="I15" s="261"/>
+      <c r="C15" s="272" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="273"/>
+      <c r="E15" s="273"/>
+      <c r="F15" s="273"/>
+      <c r="G15" s="273"/>
+      <c r="H15" s="273"/>
+      <c r="I15" s="274"/>
       <c r="J15" s="144"/>
     </row>
     <row r="16" spans="2:10" s="154" customFormat="1" x14ac:dyDescent="0.25">
@@ -10685,12 +10666,12 @@
       <c r="B194" s="178"/>
       <c r="C194" s="179"/>
       <c r="D194" s="54"/>
-      <c r="E194" s="262" t="s">
+      <c r="E194" s="275" t="s">
         <v>914</v>
       </c>
-      <c r="F194" s="263"/>
-      <c r="G194" s="263"/>
-      <c r="H194" s="263"/>
+      <c r="F194" s="276"/>
+      <c r="G194" s="276"/>
+      <c r="H194" s="276"/>
       <c r="I194" s="193">
         <f>SUM(I17:I193)</f>
         <v>0</v>
@@ -10710,10 +10691,10 @@
     </row>
     <row r="196" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="51"/>
-      <c r="C196" s="276" t="s">
+      <c r="C196" s="260" t="s">
         <v>584</v>
       </c>
-      <c r="D196" s="277"/>
+      <c r="D196" s="261"/>
       <c r="E196" s="158"/>
       <c r="F196" s="158"/>
       <c r="G196" s="158"/>
@@ -15170,12 +15151,12 @@
       <c r="B368" s="9"/>
       <c r="C368" s="181"/>
       <c r="D368" s="182"/>
-      <c r="E368" s="274" t="s">
+      <c r="E368" s="258" t="s">
         <v>915</v>
       </c>
-      <c r="F368" s="274"/>
-      <c r="G368" s="274"/>
-      <c r="H368" s="275"/>
+      <c r="F368" s="258"/>
+      <c r="G368" s="258"/>
+      <c r="H368" s="259"/>
       <c r="I368" s="202">
         <f>SUM(I197:I367)</f>
         <v>0</v>
@@ -15195,10 +15176,10 @@
     </row>
     <row r="370" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B370" s="9"/>
-      <c r="C370" s="249" t="s">
+      <c r="C370" s="262" t="s">
         <v>779</v>
       </c>
-      <c r="D370" s="250"/>
+      <c r="D370" s="263"/>
       <c r="E370" s="122"/>
       <c r="F370" s="122"/>
       <c r="G370" s="122"/>
@@ -15730,12 +15711,12 @@
       <c r="B391" s="9"/>
       <c r="C391" s="181"/>
       <c r="D391" s="185"/>
-      <c r="E391" s="264" t="s">
+      <c r="E391" s="277" t="s">
         <v>916</v>
       </c>
-      <c r="F391" s="264"/>
-      <c r="G391" s="264"/>
-      <c r="H391" s="264"/>
+      <c r="F391" s="277"/>
+      <c r="G391" s="277"/>
+      <c r="H391" s="277"/>
       <c r="I391" s="206">
         <f>SUM(I371:I390)</f>
         <v>0</v>
@@ -15755,10 +15736,10 @@
     </row>
     <row r="393" spans="2:10" s="130" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B393" s="95"/>
-      <c r="C393" s="251" t="s">
+      <c r="C393" s="264" t="s">
         <v>746</v>
       </c>
-      <c r="D393" s="252"/>
+      <c r="D393" s="265"/>
       <c r="E393" s="123"/>
       <c r="F393" s="123"/>
       <c r="G393" s="123"/>
@@ -16134,12 +16115,12 @@
       <c r="B408" s="139"/>
       <c r="C408" s="208"/>
       <c r="D408" s="209"/>
-      <c r="E408" s="265" t="s">
+      <c r="E408" s="249" t="s">
         <v>780</v>
       </c>
-      <c r="F408" s="265"/>
-      <c r="G408" s="265"/>
-      <c r="H408" s="265"/>
+      <c r="F408" s="249"/>
+      <c r="G408" s="249"/>
+      <c r="H408" s="249"/>
       <c r="I408" s="213">
         <f>SUM(I394:I407)</f>
         <v>0</v>
@@ -16162,11 +16143,11 @@
       <c r="C410" s="208"/>
       <c r="D410" s="209"/>
       <c r="E410" s="209"/>
-      <c r="F410" s="266" t="s">
+      <c r="F410" s="250" t="s">
         <v>778</v>
       </c>
-      <c r="G410" s="266"/>
-      <c r="H410" s="266"/>
+      <c r="G410" s="250"/>
+      <c r="H410" s="250"/>
       <c r="I410" s="214">
         <f>I408+I391+I368+I194</f>
         <v>0</v>
@@ -18457,6 +18438,7 @@
   </sheetData>
   <sheetProtection password="9F39" sheet="1" autoFilter="0"/>
   <mergeCells count="17">
+    <mergeCell ref="E391:H391"/>
     <mergeCell ref="E408:H408"/>
     <mergeCell ref="F410:H410"/>
     <mergeCell ref="H8:I8"/>
@@ -18473,7 +18455,6 @@
     <mergeCell ref="D11:H12"/>
     <mergeCell ref="C15:I15"/>
     <mergeCell ref="E194:H194"/>
-    <mergeCell ref="E391:H391"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C180">

--- a/print_docs/excel/excel_template/KEMSA Customer Order Form.xlsx
+++ b/print_docs/excel/excel_template/KEMSA Customer Order Form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\HCMP-1\print_docs\excel\excel_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Karsan\Work\HCMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2893,9 +2893,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="173" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="46" x14ac:knownFonts="1">
     <font>
@@ -3775,7 +3775,7 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3790,7 +3790,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3806,7 +3806,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="18" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3832,7 +3832,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3848,7 +3848,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3862,13 +3862,13 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="24" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3879,7 +3879,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="171" fontId="10" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3905,13 +3905,13 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="6" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3945,7 +3945,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3963,7 +3963,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4033,7 +4033,7 @@
     <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -4043,7 +4043,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4153,7 +4153,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -4203,7 +4203,7 @@
     <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -4361,7 +4361,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="171" fontId="39" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -4371,7 +4371,7 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4445,13 +4445,13 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4505,10 +4505,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="14" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4539,8 +4539,56 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -4597,54 +4645,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6195,8 +6195,8 @@
   </sheetPr>
   <dimension ref="A1:L806"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6246,7 +6246,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="29"/>
-      <c r="C4" s="305"/>
+      <c r="C4" s="321"/>
       <c r="D4" s="37"/>
       <c r="E4" s="238" t="s">
         <v>343</v>
@@ -6255,14 +6255,14 @@
       <c r="G4" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="H4" s="306"/>
-      <c r="I4" s="307"/>
-      <c r="J4" s="308"/>
+      <c r="H4" s="322"/>
+      <c r="I4" s="323"/>
+      <c r="J4" s="324"/>
       <c r="K4" s="36"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="29"/>
-      <c r="C5" s="305"/>
+      <c r="C5" s="321"/>
       <c r="D5" s="37"/>
       <c r="E5" s="239" t="s">
         <v>344</v>
@@ -6271,14 +6271,14 @@
       <c r="G5" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="H5" s="309"/>
-      <c r="I5" s="310"/>
-      <c r="J5" s="311"/>
+      <c r="H5" s="325"/>
+      <c r="I5" s="326"/>
+      <c r="J5" s="327"/>
       <c r="K5" s="36"/>
     </row>
     <row r="6" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="29"/>
-      <c r="C6" s="305"/>
+      <c r="C6" s="321"/>
       <c r="D6" s="37"/>
       <c r="E6" s="239" t="s">
         <v>345</v>
@@ -6287,14 +6287,14 @@
       <c r="G6" s="39" t="s">
         <v>335</v>
       </c>
-      <c r="H6" s="309"/>
-      <c r="I6" s="310"/>
-      <c r="J6" s="311"/>
+      <c r="H6" s="325"/>
+      <c r="I6" s="326"/>
+      <c r="J6" s="327"/>
       <c r="K6" s="36"/>
     </row>
     <row r="7" spans="2:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
-      <c r="C7" s="305"/>
+      <c r="C7" s="321"/>
       <c r="D7" s="37"/>
       <c r="E7" s="239" t="s">
         <v>346</v>
@@ -6303,14 +6303,14 @@
       <c r="G7" s="39" t="s">
         <v>336</v>
       </c>
-      <c r="H7" s="309"/>
-      <c r="I7" s="310"/>
-      <c r="J7" s="311"/>
+      <c r="H7" s="325"/>
+      <c r="I7" s="326"/>
+      <c r="J7" s="327"/>
       <c r="K7" s="36"/>
     </row>
     <row r="8" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="29"/>
-      <c r="C8" s="305"/>
+      <c r="C8" s="321"/>
       <c r="D8" s="31"/>
       <c r="E8" s="240" t="s">
         <v>347</v>
@@ -6319,9 +6319,9 @@
       <c r="G8" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="H8" s="302"/>
-      <c r="I8" s="303"/>
-      <c r="J8" s="304"/>
+      <c r="H8" s="318"/>
+      <c r="I8" s="319"/>
+      <c r="J8" s="320"/>
       <c r="K8" s="36"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -6351,13 +6351,13 @@
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="29"/>
       <c r="C11" s="249"/>
-      <c r="D11" s="321" t="s">
+      <c r="D11" s="305" t="s">
         <v>341</v>
       </c>
-      <c r="E11" s="320"/>
-      <c r="F11" s="320"/>
-      <c r="G11" s="320"/>
-      <c r="H11" s="322"/>
+      <c r="E11" s="304"/>
+      <c r="F11" s="304"/>
+      <c r="G11" s="304"/>
+      <c r="H11" s="306"/>
       <c r="I11" s="41"/>
       <c r="J11" s="35"/>
       <c r="K11" s="36"/>
@@ -6365,11 +6365,11 @@
     <row r="12" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="29"/>
       <c r="C12" s="249"/>
-      <c r="D12" s="323"/>
-      <c r="E12" s="324"/>
-      <c r="F12" s="324"/>
-      <c r="G12" s="324"/>
-      <c r="H12" s="325"/>
+      <c r="D12" s="307"/>
+      <c r="E12" s="308"/>
+      <c r="F12" s="308"/>
+      <c r="G12" s="308"/>
+      <c r="H12" s="309"/>
       <c r="I12" s="41"/>
       <c r="J12" s="35"/>
       <c r="K12" s="36"/>
@@ -6377,13 +6377,13 @@
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="29"/>
       <c r="C13" s="249"/>
-      <c r="D13" s="320" t="s">
+      <c r="D13" s="304" t="s">
         <v>833</v>
       </c>
-      <c r="E13" s="320"/>
-      <c r="F13" s="320"/>
-      <c r="G13" s="320"/>
-      <c r="H13" s="320"/>
+      <c r="E13" s="304"/>
+      <c r="F13" s="304"/>
+      <c r="G13" s="304"/>
+      <c r="H13" s="304"/>
       <c r="I13" s="41"/>
       <c r="J13" s="35"/>
       <c r="K13" s="36"/>
@@ -6404,16 +6404,16 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="29"/>
-      <c r="C15" s="326" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="327"/>
-      <c r="E15" s="327"/>
-      <c r="F15" s="327"/>
-      <c r="G15" s="327"/>
-      <c r="H15" s="327"/>
-      <c r="I15" s="327"/>
-      <c r="J15" s="328"/>
+      <c r="C15" s="310" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="311"/>
+      <c r="E15" s="311"/>
+      <c r="F15" s="311"/>
+      <c r="G15" s="311"/>
+      <c r="H15" s="311"/>
+      <c r="I15" s="311"/>
+      <c r="J15" s="312"/>
       <c r="K15" s="36"/>
     </row>
     <row r="16" spans="2:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -6463,11 +6463,13 @@
       <c r="G17" s="55">
         <v>265</v>
       </c>
-      <c r="H17" s="16"/>
+      <c r="H17" s="16">
+        <v>10</v>
+      </c>
       <c r="I17" s="56"/>
       <c r="J17" s="57">
         <f t="shared" ref="J17:J92" si="0">G17*H17</f>
-        <v>0</v>
+        <v>2650</v>
       </c>
       <c r="K17" s="36"/>
     </row>
@@ -11238,16 +11240,16 @@
       <c r="B190" s="99"/>
       <c r="C190" s="100"/>
       <c r="D190" s="101"/>
-      <c r="E190" s="329" t="s">
+      <c r="E190" s="313" t="s">
         <v>828</v>
       </c>
-      <c r="F190" s="330"/>
-      <c r="G190" s="330"/>
-      <c r="H190" s="330"/>
+      <c r="F190" s="314"/>
+      <c r="G190" s="314"/>
+      <c r="H190" s="314"/>
       <c r="I190" s="102"/>
       <c r="J190" s="103">
         <f>SUM(J17:J189)</f>
-        <v>0</v>
+        <v>2650</v>
       </c>
       <c r="K190" s="36"/>
     </row>
@@ -11265,10 +11267,10 @@
     </row>
     <row r="192" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="111"/>
-      <c r="C192" s="314" t="s">
+      <c r="C192" s="330" t="s">
         <v>504</v>
       </c>
-      <c r="D192" s="315"/>
+      <c r="D192" s="331"/>
       <c r="E192" s="112"/>
       <c r="F192" s="112"/>
       <c r="G192" s="112"/>
@@ -15984,12 +15986,12 @@
       <c r="B367" s="99"/>
       <c r="C367" s="158"/>
       <c r="D367" s="159"/>
-      <c r="E367" s="312" t="s">
+      <c r="E367" s="328" t="s">
         <v>829</v>
       </c>
-      <c r="F367" s="312"/>
-      <c r="G367" s="312"/>
-      <c r="H367" s="313"/>
+      <c r="F367" s="328"/>
+      <c r="G367" s="328"/>
+      <c r="H367" s="329"/>
       <c r="I367" s="102"/>
       <c r="J367" s="160">
         <f>SUM(J193:J366)</f>
@@ -16011,10 +16013,10 @@
     </row>
     <row r="369" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B369" s="50"/>
-      <c r="C369" s="316" t="s">
+      <c r="C369" s="300" t="s">
         <v>698</v>
       </c>
-      <c r="D369" s="317"/>
+      <c r="D369" s="301"/>
       <c r="E369" s="167"/>
       <c r="F369" s="167"/>
       <c r="G369" s="167"/>
@@ -16567,12 +16569,12 @@
       <c r="B390" s="50"/>
       <c r="C390" s="158"/>
       <c r="D390" s="179"/>
-      <c r="E390" s="331" t="s">
+      <c r="E390" s="315" t="s">
         <v>830</v>
       </c>
-      <c r="F390" s="331"/>
-      <c r="G390" s="331"/>
-      <c r="H390" s="331"/>
+      <c r="F390" s="315"/>
+      <c r="G390" s="315"/>
+      <c r="H390" s="315"/>
       <c r="I390" s="102"/>
       <c r="J390" s="180">
         <f>SUM(J370:J389)</f>
@@ -16594,10 +16596,10 @@
     </row>
     <row r="392" spans="2:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B392" s="185"/>
-      <c r="C392" s="318" t="s">
+      <c r="C392" s="302" t="s">
         <v>666</v>
       </c>
-      <c r="D392" s="319"/>
+      <c r="D392" s="303"/>
       <c r="E392" s="186"/>
       <c r="F392" s="186"/>
       <c r="G392" s="186"/>
@@ -16988,12 +16990,12 @@
       <c r="B407" s="29"/>
       <c r="C407" s="252"/>
       <c r="D407" s="195"/>
-      <c r="E407" s="300" t="s">
+      <c r="E407" s="316" t="s">
         <v>699</v>
       </c>
-      <c r="F407" s="300"/>
-      <c r="G407" s="300"/>
-      <c r="H407" s="300"/>
+      <c r="F407" s="316"/>
+      <c r="G407" s="316"/>
+      <c r="H407" s="316"/>
       <c r="I407" s="196"/>
       <c r="J407" s="197">
         <f>SUM(J393:J406)</f>
@@ -17018,15 +17020,15 @@
       <c r="C409" s="252"/>
       <c r="D409" s="195"/>
       <c r="E409" s="195"/>
-      <c r="F409" s="301" t="s">
+      <c r="F409" s="317" t="s">
         <v>697</v>
       </c>
-      <c r="G409" s="301"/>
-      <c r="H409" s="301"/>
+      <c r="G409" s="317"/>
+      <c r="H409" s="317"/>
       <c r="I409" s="200"/>
       <c r="J409" s="201">
         <f>J190+J367+J390+J407</f>
-        <v>0</v>
+        <v>2650</v>
       </c>
       <c r="K409" s="36"/>
     </row>
@@ -20095,13 +20097,6 @@
   </sheetData>
   <sheetProtection password="9F39" sheet="1" autoFilter="0"/>
   <mergeCells count="17">
-    <mergeCell ref="C369:D369"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D11:H12"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="E190:H190"/>
-    <mergeCell ref="E390:H390"/>
     <mergeCell ref="E407:H407"/>
     <mergeCell ref="F409:H409"/>
     <mergeCell ref="H8:J8"/>
@@ -20112,6 +20107,13 @@
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="E367:H367"/>
     <mergeCell ref="C192:D192"/>
+    <mergeCell ref="C369:D369"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D11:H12"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="E190:H190"/>
+    <mergeCell ref="E390:H390"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1"/>
